--- a/alarm.xlsx
+++ b/alarm.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="314">
   <si>
     <t>s1 + s2 + a1 + time + pod + relative</t>
   </si>
@@ -45,12 +45,6 @@
     <t>s1 + s2 + e1 + pod + relative + a1 + time</t>
   </si>
   <si>
-    <t>tôi muốn đặt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đặt hộ </t>
-  </si>
-  <si>
     <t>đặt giùm</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>s1 + s2 + e1 + relative + a1 + time</t>
   </si>
   <si>
-    <t xml:space="preserve">đặt cho </t>
-  </si>
-  <si>
     <t>đặt hộ tôi</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>s3 + b1 + date_number + month + a1 + time + pod</t>
   </si>
   <si>
-    <t>s1 + s2 + pod+ b1 + date_number + month + a1 + time</t>
-  </si>
-  <si>
     <t>mỗi tuần</t>
   </si>
   <si>
@@ -309,14 +297,686 @@
     <t>s1 + s2 + date_number + month + a1 + time + pod</t>
   </si>
   <si>
-    <t>s1 + s2 + pod+ date_number + month + a1 + time</t>
+    <t>s1 + s2 + pod + b1 + date_number + month + a1 + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + pod + date_number + month + a1 + time</t>
+  </si>
+  <si>
+    <t>gọi tôi dậy</t>
+  </si>
+  <si>
+    <t>cài</t>
+  </si>
+  <si>
+    <t>cài cho tôi</t>
+  </si>
+  <si>
+    <t>cài giúp tôi</t>
+  </si>
+  <si>
+    <t>cài giùm tôi</t>
+  </si>
+  <si>
+    <t>cài hộ tôi</t>
+  </si>
+  <si>
+    <t>cài giúp</t>
+  </si>
+  <si>
+    <t>cài giùm</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + date_name + d1</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + c1 + date_name + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + date_name + d1 + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + relative + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + e1 + relative</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + pod + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + pod + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + c1 + pod + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + pod + date_name + d1</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + c1 + pod + date_name + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + c1 + pod + date_name + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + date_name + d1 + a1 + time + pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0 + s1 + s2 + pod + date_name + d1 + a1 + time </t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + pod + relative + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + relative + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + pod + e1 + relative</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + e1 + pod + relative</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + pod + relative</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + b1 + date_number + month + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + pod + b1 + date_number + month + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + date_name + week + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + pod + date_name + week + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + date_name + week + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + pod + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + e1 + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + a1 + time + pod + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + date_number + month + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + pod + date_number + month + a1 + time</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>vui lòng</t>
+  </si>
+  <si>
+    <t>tôi muốn</t>
+  </si>
+  <si>
+    <t>báo thức tôi</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + date_name + d1</t>
+  </si>
+  <si>
+    <t>s0 + s3 + c1 + date_name + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + date_name + d1 + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + relative + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + e1 + relative</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + pod + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + pod + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + c1 + pod + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + pod + date_name + d1</t>
+  </si>
+  <si>
+    <t>s0 + s3 + c1 + pod + date_name + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + c1 + pod + date_name + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + date_name + d1 + a1 + time + pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0 + s3 + pod + date_name + d1 + a1 + time </t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + pod + relative + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + relative + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + pod + e1 + relative</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + e1 + pod + relative</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + pod + relative</t>
+  </si>
+  <si>
+    <t>s0 + s3 + b1 + date_number + month + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + pod + b1 + date_number + month + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + date_name + week + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + pod + date_name + week + a1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + date_name + week + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + pod + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + e1 + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s3 + a1 + time + pod + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s3 + date_number + month + a1 + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + pod + date_number + month + a1 + time</t>
+  </si>
+  <si>
+    <t>đánh thức tôi</t>
+  </si>
+  <si>
+    <t>đánh thức tôi dậy</t>
+  </si>
+  <si>
+    <t>cài hộ</t>
+  </si>
+  <si>
+    <t>cài cho</t>
+  </si>
+  <si>
+    <t>đặt hộ</t>
+  </si>
+  <si>
+    <t>đặt cho</t>
+  </si>
+  <si>
+    <t>lịch hẹn</t>
+  </si>
+  <si>
+    <t>một lịch hẹn</t>
+  </si>
+  <si>
+    <t>chuông báo</t>
+  </si>
+  <si>
+    <t>một chuông báo</t>
+  </si>
+  <si>
+    <t>thông báo</t>
+  </si>
+  <si>
+    <t>một thông báo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + date_name + d1</t>
+  </si>
+  <si>
+    <t>s0 + s3 + c1 + date_name + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + date_name + d1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + relative + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + e1 + relative</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + pod + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + pod + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + c1 + pod + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + pod + date_name + d1</t>
+  </si>
+  <si>
+    <t>s0 + s3 + c1 + pod + date_name + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + c1 + pod + date_name + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + date_name + d1 + time + pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0 + s3 + pod + date_name + d1 + time </t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + pod + relative + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + relative + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + pod + e1 + relative</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + e1 + pod + relative</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + pod + relative</t>
+  </si>
+  <si>
+    <t>s0 + s3 + b1 + date_number + month + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + pod + b1 + date_number + month + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + date_name + d1</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + c1 + date_name + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + date_name + d1 + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + relative + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + e1 + relative</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + pod + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + pod + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + c1 + pod + date_name</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + pod + date_name + d1</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + c1 + pod + date_name + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + c1 + pod + date_name + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + date_name + d1 + time + pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0 + s1 + s2 + pod + date_name + d1 + time </t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + pod + relative + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + relative + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + pod + e1 + relative</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + e1 + pod + relative</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + pod + relative</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + b1 + date_number + month + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + pod + b1 + date_number + month + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + date_name + week + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + pod + date_name + week + time</t>
+  </si>
+  <si>
+    <t>s0 + s3 + e1 + date_name + week + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + pod + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + e1 + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + date_name + week + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + pod + date_name + week + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + e1 + date_name + week + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + pod + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + e1 + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s3 + time + pod + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s3 + date_number + month + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s3 + pod + date_number + month + time</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + time + pod + date_number + month</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + date_number + month + time + pod</t>
+  </si>
+  <si>
+    <t>s0 + s1 + s2 + pod + date_number + month + time</t>
+  </si>
+  <si>
+    <t>s3 + time + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s3 + time + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s3 + time + date_name + d1</t>
+  </si>
+  <si>
+    <t>s3 + c1 + date_name + time</t>
+  </si>
+  <si>
+    <t>s3 + date_name + d1 + time</t>
+  </si>
+  <si>
+    <t>s3 + e1 + relative + time</t>
+  </si>
+  <si>
+    <t>s3 + time + e1 + relative</t>
+  </si>
+  <si>
+    <t>s3 + time + pod + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s3 + time + pod + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s3 + time + c1 + pod + date_name</t>
+  </si>
+  <si>
+    <t>s3 + time + pod + date_name + d1</t>
+  </si>
+  <si>
+    <t>s3 + c1 + pod + date_name + time</t>
+  </si>
+  <si>
+    <t>s3 + c1 + pod + date_name + time + pod</t>
+  </si>
+  <si>
+    <t>s3 + date_name + d1 + time + pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3 + pod + date_name + d1 + time </t>
+  </si>
+  <si>
+    <t>s3 + e1 + pod + relative + time</t>
+  </si>
+  <si>
+    <t>s3 + e1 + relative + time + pod</t>
+  </si>
+  <si>
+    <t>s3 + time + pod + e1 + relative</t>
+  </si>
+  <si>
+    <t>s3 + time + e1 + pod + relative</t>
+  </si>
+  <si>
+    <t>s3 + time + pod + relative</t>
+  </si>
+  <si>
+    <t>s3 + b1 + date_number + month + time + pod</t>
+  </si>
+  <si>
+    <t>s3 + pod + b1 + date_number + month + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + date_name + d1</t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + date_name + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + date_name + d1 + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + e1 + relative + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + e1 + relative</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + pod + b1 + date_number + month</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + pod + c1 + date_name</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + c1 + pod + date_name</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + pod + date_name + d1</t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + pod + date_name + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + pod + date_name + time + pod</t>
+  </si>
+  <si>
+    <t>s1 + s2 + date_name + d1 + time + pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + pod + date_name + d1 + time </t>
+  </si>
+  <si>
+    <t>s1 + s2 + e1 + pod + relative + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + e1 + relative + time + pod</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + pod + e1 + relative</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + e1 + pod + relative</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + pod + relative</t>
+  </si>
+  <si>
+    <t>s1 + s2 + b1 + date_number + month + time + pod</t>
+  </si>
+  <si>
+    <t>s1 + s2 + pod + b1 + date_number + month + time</t>
+  </si>
+  <si>
+    <t>s3 + e1 + date_name + week + time</t>
+  </si>
+  <si>
+    <t>s3 + time + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s3 + e1 + pod + date_name + week + time</t>
+  </si>
+  <si>
+    <t>s3 + e1 + date_name + week + time + pod</t>
+  </si>
+  <si>
+    <t>s3 + time + pod + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s3 + time + e1 + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s3 + time + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s1 + s2 + e1 + date_name + week + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s1 + s2 + e1 + pod + date_name + week + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + e1 + date_name + week + time + pod</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + pod + e1 + date_name + week</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + e1 + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + pod + date_name + week</t>
+  </si>
+  <si>
+    <t>s3 + time + date_number + month</t>
+  </si>
+  <si>
+    <t>s3 + time + pod + date_number + month</t>
+  </si>
+  <si>
+    <t>s3 + date_number + month + time + pod</t>
+  </si>
+  <si>
+    <t>s3 + pod + date_number + month + time</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + date_number + month</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + pod + date_number + month</t>
+  </si>
+  <si>
+    <t>s1 + s2 + date_number + month + time + pod</t>
+  </si>
+  <si>
+    <t>s1 + s2 + pod + date_number + month + time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -326,26 +986,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -357,18 +1006,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,10 +1296,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134:J265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -667,454 +1313,1508 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="E6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>174</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="J13" s="2" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="J19" s="2" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J22" s="2" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J23" s="2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J24" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J27" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J28" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J31" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="10:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J32" s="2" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J33" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J34" s="2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J35" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J37" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J38" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J39" s="2" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="2" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="2" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="2" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="2" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="2" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="2" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="2" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="2" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="2" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="2" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J81" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J115" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J116" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J119" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J121" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J123" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J125" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J126" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J135" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J139" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J141" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J145" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J154" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J155" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J156" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J157" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J158" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J159" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J160" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J161" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J162" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J163" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J165" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J166" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J167" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J168" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J169" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J170" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J171" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J172" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J173" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J174" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J175" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J176" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J177" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J178" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J184" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J186" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="187" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J187" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="188" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J188" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J190" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J191" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J192" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J193" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="194" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J194" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="195" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J195" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="196" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J196" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="197" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J197" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J198" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="199" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J199" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="200" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J200" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="201" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J201" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J202" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="203" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J203" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="204" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J204" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J205" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="206" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J206" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="207" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J207" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="208" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J208" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J209" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J210" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="211" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J211" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J212" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="213" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J213" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="214" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J214" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="215" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J215" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="216" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J216" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="217" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J217" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="218" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J218" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J219" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="220" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J220" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="221" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J221" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J222" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J223" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J224" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="225" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J225" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="226" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J226" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="227" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J227" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="228" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J228" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="229" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J229" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="230" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J230" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="231" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J231" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="232" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J232" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="233" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J233" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="234" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J234" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="235" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J235" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="236" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J236" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="237" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J237" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="238" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J238" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="239" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J239" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="240" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J240" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="241" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J241" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="242" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J242" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="243" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J243" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="244" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J244" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="245" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J245" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="246" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J246" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="247" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J247" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="248" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J248" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="249" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J249" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="250" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J250" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="251" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J251" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="252" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J252" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="253" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J253" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="254" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J254" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="255" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J255" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="256" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J256" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="257" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J257" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="258" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J258" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="259" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J259" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="260" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J260" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="261" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J261" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="262" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J262" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="263" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J263" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="264" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J264" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="265" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J265" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -1124,315 +2824,675 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:A132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection sqref="A1:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C58">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="*b1 + date_number + month*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>